--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H2">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I2">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J2">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N2">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P2">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q2">
-        <v>20.31243895499233</v>
+        <v>0.9556665299727777</v>
       </c>
       <c r="R2">
-        <v>182.811950594931</v>
+        <v>8.600998769755</v>
       </c>
       <c r="S2">
-        <v>0.07084653439554477</v>
+        <v>0.005300904589160378</v>
       </c>
       <c r="T2">
-        <v>0.07084653439554474</v>
+        <v>0.005300904589160379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H3">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I3">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J3">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.486111</v>
       </c>
       <c r="O3">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P3">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q3">
-        <v>23.27699533827878</v>
+        <v>1.553064944567222</v>
       </c>
       <c r="R3">
-        <v>209.492958044509</v>
+        <v>13.977584501105</v>
       </c>
       <c r="S3">
-        <v>0.08118643233893845</v>
+        <v>0.008614562542181953</v>
       </c>
       <c r="T3">
-        <v>0.08118643233893842</v>
+        <v>0.008614562542181953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5748063333333334</v>
+        <v>0.03835166666666667</v>
       </c>
       <c r="H4">
-        <v>1.724419</v>
+        <v>0.115055</v>
       </c>
       <c r="I4">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="J4">
-        <v>0.1785342934984892</v>
+        <v>0.0181239951898282</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N4">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O4">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P4">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q4">
-        <v>7.598206273785334</v>
+        <v>0.7587288807594444</v>
       </c>
       <c r="R4">
-        <v>68.383856464068</v>
+        <v>6.828559926835</v>
       </c>
       <c r="S4">
-        <v>0.02650132676400601</v>
+        <v>0.004208528058485864</v>
       </c>
       <c r="T4">
-        <v>0.026501326764006</v>
+        <v>0.004208528058485864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.366539</v>
       </c>
       <c r="I5">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J5">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N5">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O5">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P5">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q5">
-        <v>27.87615943231233</v>
+        <v>19.65687813806655</v>
       </c>
       <c r="R5">
-        <v>250.885434890811</v>
+        <v>176.911903242599</v>
       </c>
       <c r="S5">
-        <v>0.0972275802237728</v>
+        <v>0.1090330489376995</v>
       </c>
       <c r="T5">
-        <v>0.09722758022377279</v>
+        <v>0.1090330489376995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.366539</v>
       </c>
       <c r="I6">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J6">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.486111</v>
       </c>
       <c r="O6">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P6">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q6">
         <v>31.94462440442544</v>
@@ -818,10 +818,10 @@
         <v>287.501619639829</v>
       </c>
       <c r="S6">
-        <v>0.1114177345534693</v>
+        <v>0.177190893259856</v>
       </c>
       <c r="T6">
-        <v>0.1114177345534693</v>
+        <v>0.177190893259856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.366539</v>
       </c>
       <c r="I7">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="J7">
-        <v>0.2450149113420932</v>
+        <v>0.3727881574250648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N7">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O7">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P7">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q7">
-        <v>10.42754195874533</v>
+        <v>15.60611435177589</v>
       </c>
       <c r="R7">
-        <v>93.84787762870799</v>
+        <v>140.455029165983</v>
       </c>
       <c r="S7">
-        <v>0.03636959656485112</v>
+        <v>0.08656421522750926</v>
       </c>
       <c r="T7">
-        <v>0.03636959656485111</v>
+        <v>0.08656421522750928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H8">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I8">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J8">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.337883</v>
+        <v>24.91851366666667</v>
       </c>
       <c r="N8">
-        <v>106.013649</v>
+        <v>74.75554099999999</v>
       </c>
       <c r="O8">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147552</v>
       </c>
       <c r="P8">
-        <v>0.3968231145247413</v>
+        <v>0.2924799159147553</v>
       </c>
       <c r="Q8">
-        <v>65.58471965125034</v>
+        <v>32.11680777126889</v>
       </c>
       <c r="R8">
-        <v>590.262476861253</v>
+        <v>289.0512699414199</v>
       </c>
       <c r="S8">
-        <v>0.2287489999054238</v>
+        <v>0.1781459623878954</v>
       </c>
       <c r="T8">
-        <v>0.2287489999054237</v>
+        <v>0.1781459623878954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H9">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I9">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J9">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.486111</v>
       </c>
       <c r="O9">
-        <v>0.4547385869013757</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="P9">
-        <v>0.4547385869013756</v>
+        <v>0.4753125595076708</v>
       </c>
       <c r="Q9">
-        <v>75.15666715194078</v>
+        <v>52.19340294609111</v>
       </c>
       <c r="R9">
-        <v>676.4100043674671</v>
+        <v>469.74062651482</v>
       </c>
       <c r="S9">
-        <v>0.2621344200089679</v>
+        <v>0.2895071037056328</v>
       </c>
       <c r="T9">
-        <v>0.2621344200089679</v>
+        <v>0.2895071037056328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.855932333333334</v>
+        <v>1.288873333333333</v>
       </c>
       <c r="H10">
-        <v>5.567797000000001</v>
+        <v>3.86662</v>
       </c>
       <c r="I10">
-        <v>0.5764507951594176</v>
+        <v>0.6090878473851071</v>
       </c>
       <c r="J10">
-        <v>0.5764507951594176</v>
+        <v>0.609087847385107</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.218724</v>
+        <v>19.78346566666667</v>
       </c>
       <c r="N10">
-        <v>39.656172</v>
+        <v>59.350397</v>
       </c>
       <c r="O10">
-        <v>0.1484382985738831</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="P10">
-        <v>0.148438298573883</v>
+        <v>0.232207524577574</v>
       </c>
       <c r="Q10">
-        <v>24.53305727700933</v>
+        <v>25.49838133868223</v>
       </c>
       <c r="R10">
-        <v>220.797515493084</v>
+        <v>229.48543204814</v>
       </c>
       <c r="S10">
-        <v>0.08556737524502593</v>
+        <v>0.1414347812915789</v>
       </c>
       <c r="T10">
-        <v>0.08556737524502592</v>
+        <v>0.1414347812915789</v>
       </c>
     </row>
   </sheetData>
